--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Integration Tests/integration-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/Integration Tests/integration-test-cases.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Integration Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\Integration Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8DFC1E-D3F9-404D-A31F-8B6B0676AB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1FA23E-BFDF-4625-9F51-97BA49F80CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="0" windowWidth="19995" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
-    <sheet name="isValidPoint" sheetId="8" r:id="rId2"/>
+    <sheet name="calculateAvailableSpace" sheetId="7" r:id="rId2"/>
     <sheet name="isValidDestination" sheetId="6" r:id="rId3"/>
-    <sheet name="calculateAvailableSpace" sheetId="7" r:id="rId4"/>
+    <sheet name="isValidPoint" sheetId="8" r:id="rId4"/>
     <sheet name="findTruckForShipment" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -621,6 +621,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -672,26 +678,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,127 +979,127 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1119,25 +1119,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA18F98-97A9-46F5-9E7C-D8E2952DE610}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA9E19C-C91D-47D4-9FDD-BC5C70A516D1}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="52.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="6.42578125" style="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="52.7265625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="6.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1148,59 +1148,59 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>47</v>
@@ -1208,25 +1208,25 @@
       <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>57</v>
+        <v>75</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>49</v>
@@ -1234,25 +1234,25 @@
       <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>47</v>
@@ -1260,25 +1260,25 @@
       <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>55</v>
@@ -1286,26 +1286,66 @@
       <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="6:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
@@ -1326,19 +1366,19 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="52.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="6.42578125" style="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="52.7265625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="6.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
@@ -1351,45 +1391,45 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -1415,7 +1455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
@@ -1441,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
@@ -1493,19 +1533,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:F3"/>
@@ -1523,25 +1563,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA9E19C-C91D-47D4-9FDD-BC5C70A516D1}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA18F98-97A9-46F5-9E7C-D8E2952DE610}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="52.7109375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="6.42578125" style="1"/>
+    <col min="1" max="1" width="13.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="52.7265625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.7265625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="6.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1552,59 +1592,59 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>47</v>
@@ -1612,25 +1652,25 @@
       <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>49</v>
@@ -1638,25 +1678,25 @@
       <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>78</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>47</v>
@@ -1664,25 +1704,25 @@
       <c r="G6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>80</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>55</v>
@@ -1690,66 +1730,26 @@
       <c r="G7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="6:8" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="6:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
@@ -1769,21 +1769,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="52.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="15.140625" style="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="52.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="17.7265625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="15.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
@@ -1794,45 +1794,45 @@
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -1936,9 +1936,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:F3"/>
@@ -1956,6 +1956,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2156,36 +2171,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2208,9 +2197,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>